--- a/data/trans_orig/IP12_R1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP12_R1_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{639CDC0B-33AB-43B0-BCC8-2BD686EE222A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDBC817E-95CC-4F39-BF8D-BEBE647A39D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0FC78919-377A-4770-AD4E-E9A43F4A97D7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A3370BFC-B308-4860-9A95-AC0B04696AC2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="119">
   <si>
     <t>Menores según si limitaron su actividad por dolor 2023 en 2023 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -83,13 +83,13 @@
     <t>6,08%</t>
   </si>
   <si>
-    <t>34,86%</t>
+    <t>26,25%</t>
   </si>
   <si>
     <t>3,46%</t>
   </si>
   <si>
-    <t>15,61%</t>
+    <t>15,98%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,178 +107,184 @@
     <t>93,92%</t>
   </si>
   <si>
-    <t>65,14%</t>
+    <t>73,75%</t>
   </si>
   <si>
     <t>96,54%</t>
   </si>
   <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>1,29%</t>
   </si>
   <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
   </si>
   <si>
     <t>3,15%</t>
   </si>
   <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
   </si>
   <si>
     <t>2,17%</t>
   </si>
   <si>
-    <t>4,35%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
   </si>
   <si>
     <t>98,71%</t>
   </si>
   <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
   </si>
   <si>
     <t>96,85%</t>
   </si>
   <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
   </si>
   <si>
     <t>97,83%</t>
   </si>
   <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
   </si>
   <si>
     <t>1,78%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
   </si>
   <si>
     <t>98,36%</t>
   </si>
   <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
   </si>
   <si>
     <t>98,04%</t>
   </si>
   <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
   </si>
   <si>
     <t>98,22%</t>
   </si>
   <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>2,15%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
   </si>
   <si>
     <t>3,61%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
   </si>
   <si>
     <t>2,87%</t>
   </si>
   <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
   </si>
   <si>
     <t>97,85%</t>
   </si>
   <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
   </si>
   <si>
     <t>96,39%</t>
   </si>
   <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
   </si>
   <si>
     <t>97,13%</t>
   </si>
   <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -287,97 +293,103 @@
     <t>2,18%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
   </si>
   <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>2,08%</t>
+    <t>2,0%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>2,79%</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
   </si>
   <si>
     <t>97,82%</t>
   </si>
   <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
   </si>
   <si>
     <t>99,57%</t>
   </si>
   <si>
-    <t>97,92%</t>
+    <t>98,0%</t>
   </si>
   <si>
     <t>98,69%</t>
   </si>
   <si>
-    <t>97,21%</t>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
   </si>
   <si>
     <t>1,81%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
   </si>
   <si>
     <t>2,03%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
   </si>
   <si>
     <t>98,19%</t>
   </si>
   <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
   </si>
   <si>
     <t>97,72%</t>
   </si>
   <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
   </si>
   <si>
     <t>97,97%</t>
   </si>
   <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -792,7 +804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E405B8A-D626-4E2E-93D3-1A8331D219F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67BDFD61-B341-460E-9F29-F13A29428BC3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1104,10 +1116,10 @@
         <v>33</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1122,13 +1134,13 @@
         <v>113123</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
         <v>163</v>
@@ -1137,13 +1149,13 @@
         <v>100622</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M8" s="7">
         <v>312</v>
@@ -1152,13 +1164,13 @@
         <v>213743</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1214,7 +1226,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1226,13 +1238,13 @@
         <v>4102</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -1241,13 +1253,13 @@
         <v>3778</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -1256,13 +1268,13 @@
         <v>7880</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1277,13 +1289,13 @@
         <v>246084</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H11" s="7">
         <v>273</v>
@@ -1292,13 +1304,13 @@
         <v>188574</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M11" s="7">
         <v>611</v>
@@ -1307,13 +1319,13 @@
         <v>434658</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1369,7 +1381,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1381,13 +1393,13 @@
         <v>3726</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -1396,13 +1408,13 @@
         <v>6061</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -1411,13 +1423,13 @@
         <v>9787</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1432,13 +1444,13 @@
         <v>169482</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>217</v>
@@ -1447,13 +1459,13 @@
         <v>161841</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>436</v>
@@ -1462,13 +1474,13 @@
         <v>331323</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1524,7 +1536,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1536,13 +1548,13 @@
         <v>3812</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -1551,13 +1563,13 @@
         <v>732</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -1566,13 +1578,13 @@
         <v>4543</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1587,13 +1599,13 @@
         <v>171204</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H17" s="7">
         <v>239</v>
@@ -1602,10 +1614,10 @@
         <v>171211</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -1617,13 +1629,13 @@
         <v>342415</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1691,13 +1703,13 @@
         <v>13112</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -1706,13 +1718,13 @@
         <v>14866</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M19" s="7">
         <v>42</v>
@@ -1721,13 +1733,13 @@
         <v>27978</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1742,13 +1754,13 @@
         <v>712592</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H20" s="7">
         <v>919</v>
@@ -1757,13 +1769,13 @@
         <v>638013</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M20" s="7">
         <v>1877</v>
@@ -1772,13 +1784,13 @@
         <v>1350605</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1834,7 +1846,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
